--- a/apps/load_data/2021/01/PLMOVMAE.xlsx
+++ b/apps/load_data/2021/01/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2021\HHY0121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021\HHY0121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C577C01-4441-4D1E-AECF-5F7B4A71EDE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA72D47-DB83-4137-A7DE-66BD0C5352D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$259</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$259</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11250" uniqueCount="3197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11230" uniqueCount="3194">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6982,9 +6983,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8191,9 +8189,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8486,9 +8481,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9619,7 +9611,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10459,10 +10451,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD234" sqref="AC172:AD234"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42820,12 +42814,7 @@
       <c r="AB172" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -42878,16 +42867,16 @@
         <v>21</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="BI172" s="1" t="s">
         <v>2321</v>
-      </c>
-      <c r="BI172" s="1" t="s">
-        <v>2322</v>
       </c>
       <c r="BM172" s="1" t="s">
         <v>117</v>
@@ -42902,13 +42891,13 @@
         <v>165</v>
       </c>
       <c r="BR172" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BS172" s="3">
         <v>36225</v>
       </c>
       <c r="BT172" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BU172" s="1" t="s">
         <v>121</v>
@@ -42929,19 +42918,19 @@
         <v>101</v>
       </c>
       <c r="CC172" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="CD172" s="1" t="s">
         <v>2325</v>
       </c>
-      <c r="CD172" s="1" t="s">
+      <c r="CE172" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="CE172" s="1" t="s">
+      <c r="CG172" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="CG172" s="1" t="s">
+      <c r="CH172" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>129</v>
@@ -42979,13 +42968,13 @@
         <v>96</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>100</v>
@@ -43020,12 +43009,7 @@
       <c r="AB173" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43072,7 +43056,7 @@
         <v>101</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BB173" s="1">
         <v>1</v>
@@ -43081,13 +43065,13 @@
         <v>21</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BI173" s="1" t="s">
         <v>1692</v>
@@ -43102,13 +43086,13 @@
         <v>102</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BS173" s="3">
         <v>36949</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>121</v>
@@ -43132,16 +43116,16 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="CD173" s="1" t="s">
         <v>2020</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CG173" s="1" t="s">
         <v>2339</v>
-      </c>
-      <c r="CG173" s="1" t="s">
-        <v>2340</v>
       </c>
       <c r="CH173" s="1" t="s">
         <v>1697</v>
@@ -43182,13 +43166,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2343</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -43223,12 +43207,7 @@
       <c r="AB174" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43275,7 +43254,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BB174" s="1">
         <v>1</v>
@@ -43284,13 +43263,13 @@
         <v>21</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>1692</v>
@@ -43308,13 +43287,13 @@
         <v>165</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BS174" s="3">
         <v>36825</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>121</v>
@@ -43338,16 +43317,16 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="CD174" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="CD174" s="1" t="s">
+      <c r="CE174" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="CE174" s="1" t="s">
+      <c r="CG174" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>1697</v>
@@ -43388,13 +43367,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -43426,12 +43405,7 @@
       <c r="AA175" s="1">
         <v>0</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -43481,7 +43455,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BB175" s="1">
         <v>1</v>
@@ -43490,13 +43464,13 @@
         <v>21</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>117</v>
@@ -43505,7 +43479,7 @@
         <v>106</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>121</v>
@@ -43523,16 +43497,16 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="CD175" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="CG175" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>129</v>
@@ -43573,13 +43547,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -43614,12 +43588,7 @@
       <c r="AB176" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -43669,7 +43638,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BB176" s="1">
         <v>1</v>
@@ -43678,13 +43647,13 @@
         <v>21</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>117</v>
@@ -43693,7 +43662,7 @@
         <v>106</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>121</v>
@@ -43714,13 +43683,13 @@
         <v>690</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CG176" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>129</v>
@@ -43761,13 +43730,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -43799,12 +43768,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -43854,7 +43818,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BB177" s="1">
         <v>1</v>
@@ -43863,13 +43827,13 @@
         <v>21</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>1093</v>
@@ -43881,7 +43845,7 @@
         <v>106</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>121</v>
@@ -43899,16 +43863,16 @@
         <v>101</v>
       </c>
       <c r="CC177" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CD177" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CD177" s="1" t="s">
-        <v>2380</v>
-      </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>1099</v>
@@ -43949,13 +43913,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -43993,12 +43957,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44045,7 +44004,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BB178" s="1">
         <v>1</v>
@@ -44054,16 +44013,16 @@
         <v>21</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="BI178" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="BI178" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="BM178" s="1" t="s">
         <v>117</v>
@@ -44075,13 +44034,13 @@
         <v>118</v>
       </c>
       <c r="BR178" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BS178" s="3">
         <v>35243</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>121</v>
@@ -44099,19 +44058,19 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="CD178" s="1" t="s">
         <v>2392</v>
       </c>
-      <c r="CD178" s="1" t="s">
+      <c r="CE178" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="CG178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>129</v>
@@ -44149,13 +44108,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2397</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -44187,12 +44146,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44242,7 +44196,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BB179" s="1">
         <v>1</v>
@@ -44251,13 +44205,13 @@
         <v>21</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>587</v>
@@ -44269,7 +44223,7 @@
         <v>106</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>121</v>
@@ -44287,16 +44241,16 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>593</v>
@@ -44337,13 +44291,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -44375,12 +44329,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -44430,7 +44379,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BB180" s="1">
         <v>1</v>
@@ -44439,7 +44388,7 @@
         <v>21</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
@@ -44460,7 +44409,7 @@
         <v>165</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>121</v>
@@ -44478,13 +44427,13 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="CE180" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="CG180" s="1" t="s">
         <v>2282</v>
@@ -44504,13 +44453,13 @@
         <v>88</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>101</v>
@@ -44522,19 +44471,19 @@
         <v>94</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -44569,12 +44518,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -44624,7 +44568,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BB181" s="1">
         <v>1</v>
@@ -44633,13 +44577,13 @@
         <v>21</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>385</v>
@@ -44651,7 +44595,7 @@
         <v>106</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>121</v>
@@ -44672,16 +44616,16 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>393</v>
@@ -44722,13 +44666,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -44760,12 +44704,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2319</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>107</v>
       </c>
@@ -44812,7 +44751,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BB182" s="1">
         <v>1</v>
@@ -44821,16 +44760,16 @@
         <v>21</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>117</v>
@@ -44842,13 +44781,13 @@
         <v>118</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BS182" s="3">
         <v>35950</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>121</v>
@@ -44866,19 +44805,19 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>1822</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>129</v>
@@ -44916,13 +44855,13 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -45006,7 +44945,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BB183" s="1">
         <v>1</v>
@@ -45015,13 +44954,13 @@
         <v>21</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1864</v>
@@ -45036,7 +44975,7 @@
         <v>165</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>121</v>
@@ -45054,16 +44993,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>1868</v>
@@ -45104,13 +45043,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -45188,7 +45127,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BB184" s="1">
         <v>1</v>
@@ -45197,16 +45136,16 @@
         <v>21</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>117</v>
@@ -45218,13 +45157,13 @@
         <v>231</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BS184" s="3">
         <v>36099</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>121</v>
@@ -45242,19 +45181,19 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CG184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>129</v>
@@ -45292,13 +45231,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -45376,7 +45315,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BB185" s="1">
         <v>1</v>
@@ -45385,13 +45324,13 @@
         <v>21</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>1896</v>
@@ -45406,13 +45345,13 @@
         <v>102</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BS185" s="3">
         <v>37735</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>121</v>
@@ -45430,16 +45369,16 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>1903</v>
@@ -45480,13 +45419,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -45567,7 +45506,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BB186" s="1">
         <v>1</v>
@@ -45576,13 +45515,13 @@
         <v>21</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>385</v>
@@ -45594,7 +45533,7 @@
         <v>106</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>121</v>
@@ -45612,16 +45551,16 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="CD186" s="1" t="s">
         <v>888</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="CG186" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>393</v>
@@ -45644,7 +45583,7 @@
         <v>90</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>101</v>
@@ -45662,13 +45601,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -45707,7 +45646,7 @@
         <v>107</v>
       </c>
       <c r="AG187" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="AH187" s="1" t="s">
         <v>1941</v>
@@ -45752,7 +45691,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BB187" s="1">
         <v>1</v>
@@ -45761,13 +45700,13 @@
         <v>21</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>117</v>
@@ -45776,7 +45715,7 @@
         <v>106</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>121</v>
@@ -45785,7 +45724,7 @@
         <v>0</v>
       </c>
       <c r="BZ187" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="CA187" s="1" t="s">
         <v>123</v>
@@ -45797,13 +45736,13 @@
         <v>1611</v>
       </c>
       <c r="CD187" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="CE187" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>129</v>
@@ -45844,13 +45783,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -45931,7 +45870,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BB188" s="1">
         <v>1</v>
@@ -45940,16 +45879,16 @@
         <v>21</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>117</v>
@@ -45961,13 +45900,13 @@
         <v>102</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BS188" s="3">
         <v>43602</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>121</v>
@@ -45991,13 +45930,13 @@
         <v>973</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>129</v>
@@ -46035,13 +45974,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46122,7 +46061,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BB189" s="1">
         <v>1</v>
@@ -46131,13 +46070,13 @@
         <v>21</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BI189" s="1" t="s">
         <v>1056</v>
@@ -46149,7 +46088,7 @@
         <v>106</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>121</v>
@@ -46167,16 +46106,16 @@
         <v>101</v>
       </c>
       <c r="CC189" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="CD189" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="CD189" s="1" t="s">
+      <c r="CE189" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>1062</v>
@@ -46217,13 +46156,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46265,7 +46204,7 @@
         <v>42247</v>
       </c>
       <c r="AD190" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="AF190" s="1" t="s">
         <v>107</v>
@@ -46319,16 +46258,16 @@
         <v>21</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2532</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2533</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>117</v>
@@ -46340,13 +46279,13 @@
         <v>231</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BS190" s="3">
         <v>36580</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>121</v>
@@ -46367,7 +46306,7 @@
         <v>101</v>
       </c>
       <c r="CC190" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="CD190" s="1" t="s">
         <v>298</v>
@@ -46376,10 +46315,10 @@
         <v>1640</v>
       </c>
       <c r="CG190" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>129</v>
@@ -46417,13 +46356,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46507,13 +46446,13 @@
         <v>21</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>1864</v>
@@ -46528,13 +46467,13 @@
         <v>118</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BS191" s="3">
         <v>37747</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>121</v>
@@ -46558,10 +46497,10 @@
         <v>678</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>1868</v>
@@ -46602,13 +46541,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46695,13 +46634,13 @@
         <v>21</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>117</v>
@@ -46710,7 +46649,7 @@
         <v>106</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>121</v>
@@ -46728,16 +46667,16 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>129</v>
@@ -46778,13 +46717,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46871,13 +46810,13 @@
         <v>21</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>117</v>
@@ -46886,7 +46825,7 @@
         <v>165</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>121</v>
@@ -46904,16 +46843,16 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>129</v>
@@ -46954,13 +46893,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47044,16 +46983,16 @@
         <v>21</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>117</v>
@@ -47065,13 +47004,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BS194" s="3">
         <v>37334</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>121</v>
@@ -47092,16 +47031,16 @@
         <v>523</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>129</v>
@@ -47139,13 +47078,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47229,16 +47168,16 @@
         <v>21</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>117</v>
@@ -47250,13 +47189,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BS195" s="3">
         <v>37904</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>121</v>
@@ -47277,16 +47216,16 @@
         <v>973</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>129</v>
@@ -47306,7 +47245,7 @@
         <v>90</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>101</v>
@@ -47324,13 +47263,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47414,13 +47353,13 @@
         <v>21</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>117</v>
@@ -47432,13 +47371,13 @@
         <v>118</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BS196" s="3">
         <v>36111</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>121</v>
@@ -47447,7 +47386,7 @@
         <v>0</v>
       </c>
       <c r="BZ196" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="CA196" s="1" t="s">
         <v>123</v>
@@ -47456,16 +47395,16 @@
         <v>101</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>1158</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>129</v>
@@ -47506,13 +47445,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47596,16 +47535,16 @@
         <v>21</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>117</v>
@@ -47617,13 +47556,13 @@
         <v>118</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BS197" s="3">
         <v>37785</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>121</v>
@@ -47641,19 +47580,19 @@
         <v>101</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="CD197" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="CD197" s="1" t="s">
+      <c r="CE197" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>129</v>
@@ -47667,10 +47606,10 @@
         <v>88</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>152</v>
@@ -47685,16 +47624,16 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47772,7 +47711,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>117</v>
@@ -47787,7 +47726,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>123</v>
@@ -47796,7 +47735,7 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="CG198" s="1" t="s">
         <v>129</v>
@@ -47840,13 +47779,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47927,7 +47866,7 @@
         <v>101</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="BB199" s="1">
         <v>1</v>
@@ -47936,13 +47875,13 @@
         <v>21</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>856</v>
@@ -47954,7 +47893,7 @@
         <v>106</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>121</v>
@@ -47972,16 +47911,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>861</v>
@@ -48022,13 +47961,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48109,7 +48048,7 @@
         <v>101</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BB200" s="1">
         <v>1</v>
@@ -48118,13 +48057,13 @@
         <v>21</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>1864</v>
@@ -48136,7 +48075,7 @@
         <v>106</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>121</v>
@@ -48154,16 +48093,16 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="CD200" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="CG200" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>1868</v>
@@ -48204,13 +48143,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2642</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48291,7 +48230,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BB201" s="1">
         <v>1</v>
@@ -48300,13 +48239,13 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>856</v>
@@ -48318,7 +48257,7 @@
         <v>106</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>121</v>
@@ -48339,13 +48278,13 @@
         <v>1133</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2649</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>861</v>
@@ -48386,13 +48325,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2651</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2652</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48473,7 +48412,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BB202" s="1">
         <v>1</v>
@@ -48482,13 +48421,13 @@
         <v>21</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1864</v>
@@ -48506,13 +48445,13 @@
         <v>165</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BS202" s="3">
         <v>37513</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>121</v>
@@ -48530,16 +48469,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2660</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1868</v>
@@ -48580,13 +48519,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48670,16 +48609,16 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BI203" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>117</v>
@@ -48691,13 +48630,13 @@
         <v>102</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BS203" s="3">
         <v>41024</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>121</v>
@@ -48715,19 +48654,19 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="CH203" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2590</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>129</v>
@@ -48765,13 +48704,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48810,7 +48749,7 @@
         <v>107</v>
       </c>
       <c r="AG204" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="AH204" s="1" t="s">
         <v>1941</v>
@@ -48855,7 +48794,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BB204" s="1">
         <v>1</v>
@@ -48864,16 +48803,16 @@
         <v>21</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>117</v>
@@ -48885,13 +48824,13 @@
         <v>118</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BS204" s="3">
         <v>34808</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>121</v>
@@ -48909,19 +48848,19 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="CD204" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="CD204" s="1" t="s">
+      <c r="CE204" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>129</v>
@@ -48959,13 +48898,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49043,7 +48982,7 @@
         <v>101</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BB205" s="1">
         <v>1</v>
@@ -49052,13 +48991,13 @@
         <v>21</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1056</v>
@@ -49073,13 +49012,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BS205" s="3">
         <v>37336</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>121</v>
@@ -49097,16 +49036,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2696</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2697</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1062</v>
@@ -49147,13 +49086,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49234,7 +49173,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BB206" s="1">
         <v>1</v>
@@ -49243,13 +49182,13 @@
         <v>21</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>2278</v>
@@ -49261,7 +49200,7 @@
         <v>106</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>121</v>
@@ -49279,16 +49218,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2707</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2708</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>2283</v>
@@ -49329,13 +49268,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2710</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49425,13 +49364,13 @@
         <v>21</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>117</v>
@@ -49440,7 +49379,7 @@
         <v>106</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>121</v>
@@ -49458,16 +49397,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2718</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>129</v>
@@ -49508,13 +49447,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49549,12 +49488,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2722</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>107</v>
       </c>
@@ -49604,7 +49538,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="BB208" s="1">
         <v>1</v>
@@ -49613,16 +49547,16 @@
         <v>21</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="BI208" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>117</v>
@@ -49631,7 +49565,7 @@
         <v>106</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>121</v>
@@ -49643,7 +49577,7 @@
         <v>111</v>
       </c>
       <c r="BZ208" s="1" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="CA208" s="1" t="s">
         <v>123</v>
@@ -49655,16 +49589,16 @@
         <v>1182</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="CE208" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="CG208" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>129</v>
@@ -49702,10 +49636,10 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -49732,7 +49666,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>381</v>
@@ -49786,10 +49720,10 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="210" spans="1:87" x14ac:dyDescent="0.25">
@@ -49800,13 +49734,13 @@
         <v>88</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>2418</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>101</v>
@@ -49818,16 +49752,16 @@
         <v>94</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -49854,7 +49788,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>381</v>
@@ -49899,7 +49833,7 @@
         <v>0</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>123</v>
@@ -49908,10 +49842,10 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -49946,10 +49880,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -49976,7 +49910,7 @@
         <v>107</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>381</v>
@@ -50030,10 +49964,10 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50050,7 +49984,7 @@
         <v>130</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>92</v>
@@ -50062,16 +49996,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50152,10 +50086,10 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50190,10 +50124,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -50274,10 +50208,10 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -50294,7 +50228,7 @@
         <v>130</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -50306,16 +50240,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -50396,10 +50330,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -50434,10 +50368,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>111</v>
@@ -50518,10 +50452,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -50556,13 +50490,13 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2755</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -50594,12 +50528,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2722</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -50652,16 +50581,16 @@
         <v>21</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="BI216" s="1" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>117</v>
@@ -50673,13 +50602,13 @@
         <v>102</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="BS216" s="3">
         <v>36306</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>121</v>
@@ -50697,19 +50626,19 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="CD216" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="CE216" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CH216" s="1" t="s">
         <v>2764</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2765</v>
-      </c>
-      <c r="CH216" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>129</v>
@@ -50747,13 +50676,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2768</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2769</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -50785,12 +50714,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2722</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -50846,13 +50770,13 @@
         <v>21</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1864</v>
@@ -50864,7 +50788,7 @@
         <v>106</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>121</v>
@@ -50882,16 +50806,16 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="CG217" s="1" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>1868</v>
@@ -50932,13 +50856,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2776</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2777</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -50973,12 +50897,7 @@
       <c r="AB218" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2722</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51031,13 +50950,13 @@
         <v>21</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>856</v>
@@ -51052,13 +50971,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="BS218" s="3">
         <v>38234</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>121</v>
@@ -51076,16 +50995,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>861</v>
@@ -51126,13 +51045,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2786</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2787</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51164,12 +51083,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2722</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51225,13 +51139,13 @@
         <v>21</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1056</v>
@@ -51243,7 +51157,7 @@
         <v>106</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>121</v>
@@ -51261,16 +51175,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="CD219" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2793</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2794</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>1062</v>
@@ -51311,13 +51225,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2796</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2797</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2798</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51349,12 +51263,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2722</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -51407,16 +51316,16 @@
         <v>21</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="BI220" s="1" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>117</v>
@@ -51428,13 +51337,13 @@
         <v>231</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="BS220" s="3">
         <v>37069</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>121</v>
@@ -51455,16 +51364,16 @@
         <v>772</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="CG220" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2806</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2807</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>129</v>
@@ -51502,13 +51411,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2809</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2810</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -51540,12 +51449,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2722</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -51601,13 +51505,13 @@
         <v>21</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>1056</v>
@@ -51619,7 +51523,7 @@
         <v>106</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>121</v>
@@ -51637,16 +51541,16 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2816</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2817</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>1062</v>
@@ -51687,13 +51591,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2818</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2819</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -51725,12 +51629,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2821</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>107</v>
       </c>
@@ -51777,7 +51676,7 @@
         <v>101</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="BB222" s="1">
         <v>1</v>
@@ -51786,16 +51685,16 @@
         <v>21</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="BJ222" s="1" t="s">
         <v>435</v>
@@ -51810,13 +51709,13 @@
         <v>231</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="BS222" s="3">
         <v>35125</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>121</v>
@@ -51834,19 +51733,19 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="CG222" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>441</v>
@@ -51884,13 +51783,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -51980,7 +51879,7 @@
         <v>21</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
@@ -51989,7 +51888,7 @@
         <v>117</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>121</v>
@@ -52007,13 +51906,13 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="CD223" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="CG223" s="1" t="s">
         <v>129</v>
@@ -52057,13 +51956,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52150,16 +52049,16 @@
         <v>21</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>117</v>
@@ -52168,7 +52067,7 @@
         <v>106</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>121</v>
@@ -52189,16 +52088,16 @@
         <v>339</v>
       </c>
       <c r="CD224" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="CE224" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="CG224" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="CH224" s="1" t="s">
         <v>2847</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2848</v>
-      </c>
-      <c r="CG224" s="1" t="s">
-        <v>2849</v>
-      </c>
-      <c r="CH224" s="1" t="s">
-        <v>2850</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>129</v>
@@ -52212,7 +52111,7 @@
         <v>88</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>483</v>
@@ -52236,13 +52135,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52329,13 +52228,13 @@
         <v>21</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>198</v>
@@ -52350,13 +52249,13 @@
         <v>231</v>
       </c>
       <c r="BR225" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BS225" s="3">
         <v>34307</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>121</v>
@@ -52365,7 +52264,7 @@
         <v>0</v>
       </c>
       <c r="BZ225" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="CA225" s="1" t="s">
         <v>123</v>
@@ -52374,16 +52273,16 @@
         <v>101</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CG225" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>205</v>
@@ -52427,10 +52326,10 @@
         <v>256</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>258</v>
@@ -52463,7 +52362,7 @@
         <v>42582</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>107</v>
@@ -52520,13 +52419,13 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BI226" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>117</v>
@@ -52571,7 +52470,7 @@
         <v>269</v>
       </c>
       <c r="CG226" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>804</v>
@@ -52594,7 +52493,7 @@
         <v>90</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>92</v>
@@ -52606,22 +52505,22 @@
         <v>94</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="Q227" s="3">
         <v>17060</v>
@@ -52657,13 +52556,13 @@
         <v>42628</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>138</v>
@@ -52708,22 +52607,22 @@
         <v>101</v>
       </c>
       <c r="AZ227" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="BI227" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="BB227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD227" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="BH227" s="1" t="s">
-        <v>2879</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>2880</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>117</v>
@@ -52732,7 +52631,7 @@
         <v>106</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>121</v>
@@ -52741,7 +52640,7 @@
         <v>0</v>
       </c>
       <c r="BZ227" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="CA227" s="1" t="s">
         <v>123</v>
@@ -52756,13 +52655,13 @@
         <v>125</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>129</v>
@@ -52776,13 +52675,13 @@
         <v>88</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>101</v>
@@ -52794,22 +52693,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="Q228" s="3">
         <v>26864</v>
@@ -52842,7 +52741,7 @@
         <v>42735</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>107</v>
@@ -52896,10 +52795,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>117</v>
@@ -52911,13 +52810,13 @@
         <v>231</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="BS228" s="3">
         <v>102</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>121</v>
@@ -52929,7 +52828,7 @@
         <v>111</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>123</v>
@@ -52938,16 +52837,16 @@
         <v>101</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="CD228" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="CE228" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="CG228" s="1" t="s">
         <v>2896</v>
-      </c>
-      <c r="CD228" s="1" t="s">
-        <v>2897</v>
-      </c>
-      <c r="CE228" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>2899</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>129</v>
@@ -52988,16 +52887,16 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="Q229" s="3">
         <v>25379</v>
@@ -53030,7 +52929,7 @@
         <v>39800</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>243</v>
@@ -53084,10 +52983,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>117</v>
@@ -53099,13 +52998,13 @@
         <v>1658</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BS229" s="3">
         <v>35915</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>121</v>
@@ -53135,10 +53034,10 @@
         <v>438</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>129</v>
@@ -53161,7 +53060,7 @@
         <v>130</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>101</v>
@@ -53173,22 +53072,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="Q230" s="3">
         <v>17470</v>
@@ -53218,7 +53117,7 @@
         <v>43100</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>107</v>
@@ -53275,10 +53174,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>117</v>
@@ -53287,7 +53186,7 @@
         <v>106</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>121</v>
@@ -53311,16 +53210,16 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>129</v>
@@ -53343,7 +53242,7 @@
         <v>130</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>101</v>
@@ -53355,22 +53254,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="Q231" s="3">
         <v>23356</v>
@@ -53400,7 +53299,7 @@
         <v>43105</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>107</v>
@@ -53454,10 +53353,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>117</v>
@@ -53469,13 +53368,13 @@
         <v>102</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="BS231" s="3">
         <v>34412</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>121</v>
@@ -53493,16 +53392,16 @@
         <v>101</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>2315</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>129</v>
@@ -53519,13 +53418,13 @@
         <v>88</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>2418</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>92</v>
@@ -53537,22 +53436,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="Q232" s="3">
         <v>17726</v>
@@ -53588,7 +53487,7 @@
         <v>43312</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>243</v>
@@ -53639,7 +53538,7 @@
         <v>101</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BB232" s="1">
         <v>0</v>
@@ -53648,10 +53547,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>117</v>
@@ -53660,7 +53559,7 @@
         <v>106</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>121</v>
@@ -53669,7 +53568,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>123</v>
@@ -53678,16 +53577,16 @@
         <v>101</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>909</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>129</v>
@@ -53710,7 +53609,7 @@
         <v>130</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -53722,22 +53621,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="Q233" s="3">
         <v>17041</v>
@@ -53767,7 +53666,7 @@
         <v>42735</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
@@ -53824,7 +53723,7 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>117</v>
@@ -53833,7 +53732,7 @@
         <v>106</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>121</v>
@@ -53845,7 +53744,7 @@
         <v>111</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>123</v>
@@ -53854,13 +53753,13 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="CG233" s="1" t="s">
         <v>129</v>
@@ -53880,13 +53779,13 @@
         <v>88</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>2418</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>101</v>
@@ -53898,22 +53797,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="Q234" s="3">
         <v>30147</v>
@@ -53939,17 +53838,12 @@
       <c r="AA234" s="1">
         <v>0</v>
       </c>
-      <c r="AC234" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD234" s="1" t="s">
-        <v>2722</v>
-      </c>
+      <c r="AC234" s="3"/>
       <c r="AF234" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>381</v>
@@ -53997,10 +53891,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>117</v>
@@ -54012,13 +53906,13 @@
         <v>102</v>
       </c>
       <c r="BR234" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="BS234" s="3">
         <v>37124</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>121</v>
@@ -54027,7 +53921,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>123</v>
@@ -54036,16 +53930,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="CD234" s="1" t="s">
         <v>1158</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>129</v>
@@ -54086,16 +53980,16 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="Q235" s="3">
         <v>17821</v>
@@ -54134,13 +54028,13 @@
         <v>43388</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>1255</v>
@@ -54185,7 +54079,7 @@
         <v>101</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BB235" s="1">
         <v>0</v>
@@ -54194,10 +54088,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>117</v>
@@ -54206,7 +54100,7 @@
         <v>106</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>121</v>
@@ -54224,16 +54118,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="CE235" s="1" t="s">
         <v>510</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>129</v>
@@ -54274,16 +54168,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -54319,7 +54213,7 @@
         <v>43980</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -54376,7 +54270,7 @@
         <v>1857</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>117</v>
@@ -54388,13 +54282,13 @@
         <v>1658</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BS236" s="3">
         <v>35915</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>121</v>
@@ -54418,7 +54312,7 @@
         <v>438</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="CG236" s="1" t="s">
         <v>1858</v>
@@ -54438,10 +54332,10 @@
         <v>88</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>152</v>
@@ -54456,22 +54350,22 @@
         <v>94</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -54507,7 +54401,7 @@
         <v>44135</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -54564,10 +54458,10 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>117</v>
@@ -54576,7 +54470,7 @@
         <v>106</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>121</v>
@@ -54585,7 +54479,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>123</v>
@@ -54597,10 +54491,10 @@
         <v>1279</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CG237" s="1" t="s">
         <v>1858</v>
@@ -54617,10 +54511,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1253</v>
@@ -54635,7 +54529,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1253</v>
@@ -54644,13 +54538,13 @@
         <v>152</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -54704,7 +54598,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54737,19 +54631,19 @@
         <v>21</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>121</v>
@@ -54767,16 +54661,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>312</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>129</v>
@@ -54790,10 +54684,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1253</v>
@@ -54808,7 +54702,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1253</v>
@@ -54817,13 +54711,13 @@
         <v>152</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54874,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -54910,19 +54804,19 @@
         <v>21</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>121</v>
@@ -54949,10 +54843,10 @@
         <v>1083</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>129</v>
@@ -54966,10 +54860,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1253</v>
@@ -54984,7 +54878,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1253</v>
@@ -54993,13 +54887,13 @@
         <v>152</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -55050,7 +54944,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55086,19 +54980,19 @@
         <v>21</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>121</v>
@@ -55119,16 +55013,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>3014</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>3016</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>3017</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>129</v>
@@ -55142,10 +55036,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1253</v>
@@ -55160,7 +55054,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1253</v>
@@ -55169,13 +55063,13 @@
         <v>152</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55262,19 +55156,19 @@
         <v>21</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>121</v>
@@ -55295,7 +55189,7 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>602</v>
@@ -55304,7 +55198,7 @@
         <v>510</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>129</v>
@@ -55318,10 +55212,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1253</v>
@@ -55336,7 +55230,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1253</v>
@@ -55345,13 +55239,13 @@
         <v>152</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55405,7 +55299,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -55441,19 +55335,19 @@
         <v>21</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>121</v>
@@ -55477,13 +55371,13 @@
         <v>494</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>129</v>
@@ -55497,10 +55391,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1253</v>
@@ -55515,7 +55409,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1253</v>
@@ -55524,13 +55418,13 @@
         <v>152</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -55617,19 +55511,19 @@
         <v>21</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>121</v>
@@ -55650,16 +55544,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>616</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>129</v>
@@ -55673,10 +55567,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1253</v>
@@ -55691,7 +55585,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1253</v>
@@ -55700,13 +55594,13 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55742,7 +55636,7 @@
         <v>107</v>
       </c>
       <c r="AG244" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="AH244" s="1" t="s">
         <v>1255</v>
@@ -55760,7 +55654,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -55796,19 +55690,19 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>121</v>
@@ -55829,16 +55723,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>129</v>
@@ -55852,10 +55746,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1253</v>
@@ -55870,7 +55764,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1253</v>
@@ -55879,13 +55773,13 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55939,7 +55833,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55975,19 +55869,19 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>121</v>
@@ -56011,13 +55905,13 @@
         <v>998</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>129</v>
@@ -56031,10 +55925,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1253</v>
@@ -56049,7 +55943,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1253</v>
@@ -56058,13 +55952,13 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56118,7 +56012,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56154,19 +56048,19 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>121</v>
@@ -56193,10 +56087,10 @@
         <v>2145</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>129</v>
@@ -56210,10 +56104,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1253</v>
@@ -56228,7 +56122,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1253</v>
@@ -56237,13 +56131,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2255</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56279,7 +56173,7 @@
         <v>107</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="AH247" s="1" t="s">
         <v>1255</v>
@@ -56294,7 +56188,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56327,19 +56221,19 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>121</v>
@@ -56357,16 +56251,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3079</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3080</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3081</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3082</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>129</v>
@@ -56380,10 +56274,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1253</v>
@@ -56398,7 +56292,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1253</v>
@@ -56407,13 +56301,13 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>2263</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -56497,19 +56391,19 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>121</v>
@@ -56530,16 +56424,16 @@
         <v>2190</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3088</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3089</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3090</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3091</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>129</v>
@@ -56553,10 +56447,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1253</v>
@@ -56571,7 +56465,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1253</v>
@@ -56580,13 +56474,13 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -56670,19 +56564,19 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>121</v>
@@ -56703,13 +56597,13 @@
         <v>1196</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>129</v>
@@ -56723,10 +56617,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1253</v>
@@ -56741,7 +56635,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1253</v>
@@ -56750,13 +56644,13 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56807,7 +56701,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -56843,19 +56737,19 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>121</v>
@@ -56876,16 +56770,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>129</v>
@@ -56899,10 +56793,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1253</v>
@@ -56917,7 +56811,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1253</v>
@@ -56926,13 +56820,13 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56986,7 +56880,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57022,19 +56916,19 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>121</v>
@@ -57055,16 +56949,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3117</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3118</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3119</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3120</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>129</v>
@@ -57078,10 +56972,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1253</v>
@@ -57096,7 +56990,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1253</v>
@@ -57105,13 +56999,13 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -57165,7 +57059,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57201,19 +57095,19 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>121</v>
@@ -57234,16 +57128,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3127</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3128</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3129</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3130</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>129</v>
@@ -57257,10 +57151,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1253</v>
@@ -57275,7 +57169,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1253</v>
@@ -57284,13 +57178,13 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -57383,7 +57277,7 @@
         <v>21</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>114</v>
@@ -57410,10 +57304,10 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>219</v>
@@ -57433,10 +57327,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1253</v>
@@ -57451,7 +57345,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1253</v>
@@ -57460,13 +57354,13 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -57520,7 +57414,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -57556,25 +57450,25 @@
         <v>21</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>121</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -57592,16 +57486,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1263</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>129</v>
@@ -57615,10 +57509,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1253</v>
@@ -57633,7 +57527,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1253</v>
@@ -57642,13 +57536,13 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -57699,7 +57593,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -57735,19 +57629,19 @@
         <v>21</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>121</v>
@@ -57768,16 +57662,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>129</v>
@@ -57791,10 +57685,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1253</v>
@@ -57809,7 +57703,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1253</v>
@@ -57818,13 +57712,13 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -57851,7 +57745,7 @@
         <v>0</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>381</v>
@@ -57866,7 +57760,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -57896,19 +57790,19 @@
         <v>21</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>121</v>
@@ -57926,16 +57820,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>312</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>129</v>
@@ -57949,10 +57843,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1253</v>
@@ -57967,7 +57861,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1253</v>
@@ -57976,13 +57870,13 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -58066,19 +57960,19 @@
         <v>21</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>121</v>
@@ -58096,16 +57990,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3172</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3173</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3174</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3175</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>129</v>
@@ -58119,10 +58013,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1253</v>
@@ -58137,7 +58031,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1253</v>
@@ -58146,13 +58040,13 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58239,19 +58133,19 @@
         <v>21</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>121</v>
@@ -58269,16 +58163,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3182</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3183</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3184</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3185</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>129</v>
@@ -58292,10 +58186,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1253</v>
@@ -58310,7 +58204,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1253</v>
@@ -58319,13 +58213,13 @@
         <v>152</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -58334,7 +58228,7 @@
         <v>101</v>
       </c>
       <c r="Q259" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>136</v>
@@ -58376,7 +58270,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -58409,19 +58303,19 @@
         <v>21</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>121</v>
@@ -58439,16 +58333,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3193</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3195</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3196</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>129</v>
@@ -58458,6 +58352,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI259" xr:uid="{B1625985-BB3E-402C-B9CB-92B3E062D748}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>